--- a/data.xlsx
+++ b/data.xlsx
@@ -8,22 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nbr/Dropbox/HEP/2021-2022/projet - coordination gc hepvs/veyras_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D1187F-AB0E-8848-9D1A-212F8037998F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB75ADE-A184-BA46-A01B-6E051E2BB386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21940" windowHeight="18000" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21940" windowHeight="16340" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formation Discipline Positive -" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formation Discipline Positive -'!$A$1:$BA$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formation Discipline Positive -'!$A$1:$BA$20</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Cycle 2</t>
   </si>
@@ -568,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -762,52 +773,52 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V2">
         <v>6</v>
@@ -908,7 +919,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -917,88 +928,88 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1007,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK3">
         <v>1</v>
@@ -1022,57 +1033,57 @@
         <v>1</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1081,22 +1092,22 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1105,43 +1116,43 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>6</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4">
         <v>6</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>5</v>
@@ -1150,16 +1161,16 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1168,13 +1179,13 @@
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK4">
         <v>1</v>
@@ -1183,34 +1194,34 @@
         <v>1</v>
       </c>
       <c r="AM4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN4">
         <v>6</v>
       </c>
       <c r="AO4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR4">
         <v>5</v>
       </c>
       <c r="AS4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT4">
         <v>3</v>
       </c>
       <c r="AU4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW4">
         <v>2</v>
@@ -1230,7 +1241,7 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1245,97 +1256,97 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF5">
         <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK5">
         <v>1</v>
@@ -1344,57 +1355,57 @@
         <v>1</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1403,49 +1414,49 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -1454,34 +1465,34 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1490,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1505,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="AM6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO6">
         <v>5</v>
@@ -1517,28 +1528,28 @@
         <v>4</v>
       </c>
       <c r="AQ6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT6">
         <v>3</v>
       </c>
       <c r="AU6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW6">
         <v>2</v>
       </c>
       <c r="AX6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY6">
         <v>3</v>
@@ -1547,78 +1558,78 @@
         <v>4</v>
       </c>
       <c r="BA6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>4</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>5</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1627,19 +1638,19 @@
         <v>7</v>
       </c>
       <c r="Z7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE7">
         <v>6</v>
@@ -1648,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="AG7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7">
         <v>7</v>
       </c>
       <c r="AJ7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7">
         <v>1</v>
@@ -1666,25 +1677,25 @@
         <v>1</v>
       </c>
       <c r="AM7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7">
         <v>4</v>
       </c>
       <c r="AP7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -1696,10 +1707,10 @@
         <v>2</v>
       </c>
       <c r="AW7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY7">
         <v>3</v>
@@ -1708,12 +1719,12 @@
         <v>3</v>
       </c>
       <c r="BA7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1728,31 +1739,31 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1761,34 +1772,34 @@
         <v>6</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1797,13 +1808,13 @@
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1812,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK8">
         <v>1</v>
@@ -1827,54 +1838,54 @@
         <v>1</v>
       </c>
       <c r="AM8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AP8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT8">
         <v>3</v>
       </c>
       <c r="AU8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV8">
         <v>3</v>
       </c>
       <c r="AW8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY8">
         <v>3</v>
       </c>
       <c r="AZ8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1883,70 +1894,70 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R9">
         <v>7</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <v>6</v>
@@ -1961,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="AD9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE9">
         <v>6</v>
@@ -1970,13 +1981,13 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ9">
         <v>6</v>
@@ -1988,40 +1999,40 @@
         <v>1</v>
       </c>
       <c r="AM9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AN9">
         <v>6</v>
       </c>
       <c r="AO9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>3</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY9">
         <v>3</v>
@@ -2035,10 +2046,10 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -2053,61 +2064,61 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>5</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z10">
         <v>5</v>
@@ -2119,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE10">
         <v>6</v>
@@ -2134,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2149,25 +2160,25 @@
         <v>1</v>
       </c>
       <c r="AM10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR10">
         <v>4</v>
       </c>
       <c r="AS10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -2188,60 +2199,60 @@
         <v>3</v>
       </c>
       <c r="AZ10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11">
         <v>6</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2250,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2271,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="Z11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -2286,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="AE11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2295,13 +2306,13 @@
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI11">
         <v>6</v>
       </c>
       <c r="AJ11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11">
         <v>1</v>
@@ -2310,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AM11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN11">
         <v>6</v>
@@ -2319,16 +2330,16 @@
         <v>6</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ11">
         <v>6</v>
       </c>
       <c r="AR11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AS11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -2337,108 +2348,108 @@
         <v>3</v>
       </c>
       <c r="AV11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX11">
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>5</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>5</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12">
         <v>1</v>
@@ -2447,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="AE12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2456,13 +2467,13 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK12">
         <v>1</v>
@@ -2474,22 +2485,22 @@
         <v>6</v>
       </c>
       <c r="AN12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AQ12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AS12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AT12">
         <v>3</v>
@@ -2510,15 +2521,15 @@
         <v>3</v>
       </c>
       <c r="AZ12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2533,76 +2544,76 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y13">
         <v>6</v>
       </c>
       <c r="Z13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD13">
         <v>6</v>
@@ -2614,46 +2625,46 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI13">
         <v>6</v>
       </c>
       <c r="AJ13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN13">
         <v>6</v>
       </c>
       <c r="AO13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ13">
         <v>6</v>
       </c>
       <c r="AR13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU13">
         <v>3</v>
@@ -2665,13 +2676,13 @@
         <v>3</v>
       </c>
       <c r="AX13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA13">
         <v>3</v>
@@ -2679,10 +2690,10 @@
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2694,79 +2705,79 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>7</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P14">
         <v>6</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S14">
         <v>7</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V14">
         <v>4</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14">
         <v>7</v>
@@ -2778,10 +2789,10 @@
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ14">
         <v>7</v>
@@ -2793,25 +2804,25 @@
         <v>1</v>
       </c>
       <c r="AM14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AT14">
         <v>3</v>
@@ -2823,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="AW14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14">
         <v>3</v>
@@ -2832,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="AZ14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -2840,13 +2851,13 @@
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -2855,91 +2866,91 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>4</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF15">
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI15">
         <v>6</v>
@@ -2948,31 +2959,31 @@
         <v>6</v>
       </c>
       <c r="AK15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>6</v>
       </c>
       <c r="AO15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT15">
         <v>3</v>
@@ -2981,13 +2992,13 @@
         <v>3</v>
       </c>
       <c r="AV15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW15">
         <v>3</v>
       </c>
       <c r="AX15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY15">
         <v>3</v>
@@ -3001,13 +3012,13 @@
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3022,19 +3033,19 @@
         <v>6</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>6</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>7</v>
@@ -3046,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3055,10 +3066,10 @@
         <v>7</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U16">
         <v>5</v>
@@ -3073,7 +3084,7 @@
         <v>7</v>
       </c>
       <c r="Y16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z16">
         <v>7</v>
@@ -3085,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="AC16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD16">
         <v>7</v>
@@ -3100,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI16">
         <v>7</v>
@@ -3112,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN16">
         <v>7</v>
@@ -3124,7 +3135,7 @@
         <v>6</v>
       </c>
       <c r="AP16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ16">
         <v>6</v>
@@ -3133,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="AS16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT16">
         <v>3</v>
@@ -3145,30 +3156,30 @@
         <v>3</v>
       </c>
       <c r="AW16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16">
         <v>3</v>
       </c>
       <c r="BA16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -3177,31 +3188,31 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>3</v>
@@ -3216,13 +3227,13 @@
         <v>3</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -3231,13 +3242,13 @@
         <v>1</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA17">
         <v>1</v>
@@ -3249,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE17">
         <v>6</v>
@@ -3261,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK17">
         <v>1</v>
@@ -3276,25 +3287,25 @@
         <v>1</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN17">
         <v>6</v>
       </c>
       <c r="AO17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP17">
         <v>5</v>
       </c>
       <c r="AQ17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT17">
         <v>3</v>
@@ -3303,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="AV17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW17">
         <v>3</v>
@@ -3315,15 +3326,15 @@
         <v>3</v>
       </c>
       <c r="AZ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3338,124 +3349,124 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>5</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF18">
         <v>1</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK18">
         <v>1</v>
       </c>
       <c r="AL18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AN18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>3</v>
@@ -3464,87 +3475,87 @@
         <v>3</v>
       </c>
       <c r="AV18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ18">
         <v>3</v>
       </c>
       <c r="BA18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3553,13 +3564,13 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA19">
         <v>1</v>
@@ -3571,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="AD19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -3583,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI19">
         <v>5</v>
       </c>
       <c r="AJ19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -3598,16 +3609,16 @@
         <v>1</v>
       </c>
       <c r="AM19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO19">
         <v>6</v>
       </c>
       <c r="AP19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19">
         <v>6</v>
@@ -3616,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="AS19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT19">
         <v>3</v>
@@ -3625,123 +3636,123 @@
         <v>3</v>
       </c>
       <c r="AV19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW19">
         <v>3</v>
       </c>
       <c r="AX19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY19">
         <v>3</v>
       </c>
       <c r="AZ19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA20">
         <v>1</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF20">
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH20">
         <v>6</v>
@@ -3750,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="AJ20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK20">
         <v>1</v>
@@ -3759,25 +3770,25 @@
         <v>1</v>
       </c>
       <c r="AM20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AN20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AT20">
         <v>3</v>
@@ -3801,335 +3812,13 @@
         <v>3</v>
       </c>
       <c r="BA20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
-      <c r="N21">
-        <v>7</v>
-      </c>
-      <c r="O21">
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <v>5</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
-      </c>
-      <c r="R21">
-        <v>7</v>
-      </c>
-      <c r="S21">
-        <v>5</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
-      <c r="Y21">
-        <v>5</v>
-      </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AA21">
-        <v>1</v>
-      </c>
-      <c r="AB21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <v>1</v>
-      </c>
-      <c r="AD21">
-        <v>4</v>
-      </c>
-      <c r="AE21">
-        <v>5</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>1</v>
-      </c>
-      <c r="AI21">
-        <v>5</v>
-      </c>
-      <c r="AJ21">
-        <v>5</v>
-      </c>
-      <c r="AK21">
-        <v>1</v>
-      </c>
-      <c r="AL21">
-        <v>1</v>
-      </c>
-      <c r="AM21">
-        <v>4</v>
-      </c>
-      <c r="AN21">
-        <v>5</v>
-      </c>
-      <c r="AO21">
-        <v>6</v>
-      </c>
-      <c r="AP21">
-        <v>6</v>
-      </c>
-      <c r="AQ21">
-        <v>6</v>
-      </c>
-      <c r="AR21">
-        <v>6</v>
-      </c>
-      <c r="AS21">
-        <v>5</v>
-      </c>
-      <c r="AT21">
-        <v>3</v>
-      </c>
-      <c r="AU21">
-        <v>3</v>
-      </c>
-      <c r="AV21">
-        <v>3</v>
-      </c>
-      <c r="AW21">
-        <v>3</v>
-      </c>
-      <c r="AX21">
-        <v>3</v>
-      </c>
-      <c r="AY21">
-        <v>3</v>
-      </c>
-      <c r="AZ21">
-        <v>3</v>
-      </c>
-      <c r="BA21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22">
-        <v>6</v>
-      </c>
-      <c r="S22">
-        <v>7</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22">
-        <v>5</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
-      </c>
-      <c r="W22">
-        <v>4</v>
-      </c>
-      <c r="X22">
-        <v>6</v>
-      </c>
-      <c r="Y22">
-        <v>7</v>
-      </c>
-      <c r="Z22">
-        <v>7</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <v>2</v>
-      </c>
-      <c r="AD22">
-        <v>7</v>
-      </c>
-      <c r="AE22">
-        <v>7</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>6</v>
-      </c>
-      <c r="AI22">
-        <v>6</v>
-      </c>
-      <c r="AJ22">
-        <v>7</v>
-      </c>
-      <c r="AK22">
-        <v>1</v>
-      </c>
-      <c r="AL22">
-        <v>1</v>
-      </c>
-      <c r="AM22">
-        <v>7</v>
-      </c>
-      <c r="AN22">
-        <v>7</v>
-      </c>
-      <c r="AO22">
-        <v>5</v>
-      </c>
-      <c r="AP22">
-        <v>6</v>
-      </c>
-      <c r="AQ22">
-        <v>6</v>
-      </c>
-      <c r="AR22">
-        <v>7</v>
-      </c>
-      <c r="AS22">
-        <v>7</v>
-      </c>
-      <c r="AT22">
-        <v>3</v>
-      </c>
-      <c r="AU22">
-        <v>3</v>
-      </c>
-      <c r="AV22">
-        <v>2</v>
-      </c>
-      <c r="AW22">
-        <v>2</v>
-      </c>
-      <c r="AX22">
-        <v>2</v>
-      </c>
-      <c r="AY22">
-        <v>3</v>
-      </c>
-      <c r="AZ22">
-        <v>3</v>
-      </c>
-      <c r="BA22">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA22">
-      <sortCondition ref="A1:A22"/>
+  <autoFilter ref="A1:BA20" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BA20">
+      <sortCondition ref="A1:A20"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
